--- a/biology/Zoologie/Formosania/Formosania.xlsx
+++ b/biology/Zoologie/Formosania/Formosania.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Formosania est un genre de poissons téléostéens d'eau douce ou saumâtre de la famille des Gastromyzontidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Formosania se rencontrent en Chine et à Taïwan[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Formosania se rencontrent en Chine et à Taïwan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (17 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (17 décembre 2023) :
 Formosania chenyiyui (Zheng, 1991)
 Formosania davidi (Sauvage, 1878)
 Formosania fascicauda (Nichols, 1926)
@@ -554,7 +570,7 @@
 Formosania paucisquama (Zheng, 1981)
 Formosania stigmata (Nichols, 1926)
 Formosania tinkhami (Herre, 1934)
-Auxquelles Maurice Kottelat ajoute[3] :
+Auxquelles Maurice Kottelat ajoute :
 Formosania tengi (M. Watanabe, 1983)</t>
         </is>
       </c>
@@ -583,10 +599,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Formosania Oshima, 1919[2],[4]. Lorsque Masamitsu Ōshima (1884-1965) crée le genre en 1919, il choisit pour espèce type Formosania gilberti qu'il décrit[4] ; toutefois celle-ci sera ultérieurement considérée comme un synonyme de Formosania lacustris (Steindachner, 1908).
-Formosania a pour synonyme[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Formosania Oshima, 1919,. Lorsque Masamitsu Ōshima (1884-1965) crée le genre en 1919, il choisit pour espèce type Formosania gilberti qu'il décrit ; toutefois celle-ci sera ultérieurement considérée comme un synonyme de Formosania lacustris (Steindachner, 1908).
+Formosania a pour synonyme :
 Formosiana (graphie incorrecte)</t>
         </is>
       </c>
@@ -615,9 +633,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Formosania, fait référence à Formose, l'ancien nom de Taïwan, où se rencontre l'espèce Formosania gilberti (synonyme de Formosania lacustris)[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Formosania, fait référence à Formose, l'ancien nom de Taïwan, où se rencontre l'espèce Formosania gilberti (synonyme de Formosania lacustris).
 </t>
         </is>
       </c>
@@ -646,7 +666,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Masamitsu Oshima, « Contributions to the study of the fresh water fishes of the island of Formosa », Annals of the Carnegie Museum of Natural History, Pittsburgh, W.J. Holland, vol. 12, nos 2-4,‎ 1919, p. 169-328 (ISSN 0097-4463 et 1943-6300, OCLC 1261514, DOI 10.5962/P.34608, lire en ligne)</t>
         </is>
